--- a/data/trans_dic/P1432-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1432-Provincia-trans_dic.xlsx
@@ -679,25 +679,25 @@
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.002658296501307439</v>
+        <v>0.00270884687231812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.006937113695852839</v>
+        <v>0.004110836947434224</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003235437966668113</v>
+        <v>0.003270614563588589</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.007024768749114233</v>
+        <v>0.006731849280852287</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.005778662184151425</v>
+        <v>0.005471936624139968</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.001613092962333219</v>
+        <v>0.001631439371908134</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.006157308015651705</v>
+        <v>0.00657104477281818</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03368838285320754</v>
+        <v>0.03086577115935985</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.0284670185260813</v>
+        <v>0.02789133216271106</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04066554382742928</v>
+        <v>0.03815281005069361</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02709974671024757</v>
+        <v>0.02754517811740799</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04172130992913824</v>
+        <v>0.04145845789331228</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03075717166504641</v>
+        <v>0.02798888020189482</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01437277318398364</v>
+        <v>0.01540264023315766</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02703894790825876</v>
+        <v>0.02703807974566438</v>
       </c>
     </row>
     <row r="7">
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001710003107407856</v>
+        <v>0.00170362780930558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.007575683199700612</v>
+        <v>0.007391163009783848</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01281487510137381</v>
+        <v>0.01271905918095797</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.002222489489271619</v>
+        <v>0.002218382658202848</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005074263311739867</v>
+        <v>0.005031414477217776</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.007807925856210924</v>
+        <v>0.007202674871237904</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.003047559962831508</v>
+        <v>0.002827704833215285</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01442297250165148</v>
+        <v>0.01451246584556149</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01100273074505794</v>
+        <v>0.01038931190342226</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01561095039752119</v>
+        <v>0.01527301419193259</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03208196838377826</v>
+        <v>0.03014796014641296</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04347401479158176</v>
+        <v>0.0439536023291147</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02242256357553471</v>
+        <v>0.02321515777034829</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01886946157961267</v>
+        <v>0.01797228817481492</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02444592950570615</v>
+        <v>0.02275737952865622</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01474237132984812</v>
+        <v>0.01482133322135237</v>
       </c>
     </row>
     <row r="10">
@@ -889,19 +889,19 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003103637871904138</v>
+        <v>0.0029621815697443</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.006148434373889162</v>
+        <v>0.006121818637592738</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.006234461477315343</v>
+        <v>0.006311525260631172</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -916,22 +916,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03000299438015708</v>
+        <v>0.02751073299657194</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.03512602943609415</v>
+        <v>0.03655316823038125</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0257564445949718</v>
+        <v>0.01912345932291954</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.02609371509047647</v>
+        <v>0.02555336314059063</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.00962498074258124</v>
+        <v>0.01100310513013843</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
     </row>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002309666058833213</v>
+        <v>0.00232100395100733</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
@@ -994,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005284572343222846</v>
+        <v>0.005209821568779229</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02242386954682687</v>
+        <v>0.0214670919652598</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.002321198431993301</v>
+        <v>0.002468111645790231</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.005243564241227943</v>
+        <v>0.004369550938148272</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01178737446569305</v>
+        <v>0.01255216846997732</v>
       </c>
     </row>
     <row r="15">
@@ -1017,31 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02162032022567721</v>
+        <v>0.01997030367009177</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01968239333415365</v>
+        <v>0.020834679748848</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01554433683409171</v>
+        <v>0.01538219510338669</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01763187258644747</v>
+        <v>0.0217378131756074</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03244864487237548</v>
+        <v>0.03317993854060174</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06561448682433092</v>
+        <v>0.06323996202970432</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0141436956924605</v>
+        <v>0.01460152404702713</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02168935580570037</v>
+        <v>0.02035460500119855</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03700809403789906</v>
+        <v>0.03539110090589937</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.004878252750022302</v>
+        <v>0.004976925817771184</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
@@ -1101,14 +1101,14 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02325861159054768</v>
+        <v>0.02343476606996281</v>
       </c>
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01712812308995528</v>
+        <v>0.02013217931820516</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
@@ -1123,26 +1123,26 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.06208246835930877</v>
+        <v>0.0701334067921467</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02245841211390973</v>
+        <v>0.02263488751525069</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03530062773894091</v>
+        <v>0.03666199872867389</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08575483380160245</v>
+        <v>0.08744603586726023</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>0.01654135468121401</v>
+        <v>0.01575671148158203</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05706293908105765</v>
+        <v>0.0626428308807081</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01214383007390312</v>
+        <v>0.01118087279592713</v>
       </c>
     </row>
     <row r="19">
@@ -1198,25 +1198,25 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.006114312540637331</v>
+        <v>0.006103428768397268</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.007328755128564972</v>
+        <v>0.007502126841308005</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003500483858363278</v>
+        <v>0.003493127909805273</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.001781275286583098</v>
+        <v>0.001777732901461767</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.003782965213000924</v>
+        <v>0.003873814014572088</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.005946566066389849</v>
+        <v>0.0067136080035423</v>
       </c>
     </row>
     <row r="21">
@@ -1227,31 +1227,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02002026059814729</v>
+        <v>0.01822661423905261</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01954885817480459</v>
+        <v>0.02249941452415761</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03602737279741378</v>
+        <v>0.03474747538094357</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.02757385034618593</v>
+        <v>0.02944940614109916</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04172924485864356</v>
+        <v>0.03853417989441656</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03254960544011688</v>
+        <v>0.03558717172845461</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01689675913503508</v>
+        <v>0.01607098596906571</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.02294565357966434</v>
+        <v>0.02294874295326117</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.027249335709254</v>
+        <v>0.0276772147583384</v>
       </c>
     </row>
     <row r="22">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.002923103273238176</v>
+        <v>0.003025682214100709</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007686922506114625</v>
+        <v>0.007621825961101379</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.001380317822000031</v>
+        <v>0.001386034157188516</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.001523862595121356</v>
+        <v>0.001411467485511861</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.004463974929279868</v>
+        <v>0.004596745791089582</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01324162732133751</v>
+        <v>0.01364893335435377</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.003514516006926062</v>
+        <v>0.003550175310855551</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.008246095915442135</v>
+        <v>0.008295619006363509</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.008567232273586127</v>
+        <v>0.009117037322433245</v>
       </c>
     </row>
     <row r="24">
@@ -1336,31 +1336,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01938970834642699</v>
+        <v>0.02122419087838093</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02987835272894179</v>
+        <v>0.02921618792381027</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01390838335644594</v>
+        <v>0.01366551901171399</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01499619812940608</v>
+        <v>0.0151691565238241</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02400638866327094</v>
+        <v>0.02401049171185091</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04007523646824972</v>
+        <v>0.03840544956741496</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01408554938029255</v>
+        <v>0.01411966830646566</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02275632062023141</v>
+        <v>0.02276302008693936</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02312158236805603</v>
+        <v>0.0227299643378777</v>
       </c>
     </row>
     <row r="25">
@@ -1410,31 +1410,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01570774360111251</v>
+        <v>0.01502166620274529</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.001302003171010438</v>
+        <v>0.001307471676518722</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01649659932157015</v>
+        <v>0.01713666463469312</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.005405539474164139</v>
+        <v>0.005377757928551163</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.002781018662842724</v>
+        <v>0.002475980043633842</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01930064764169268</v>
+        <v>0.01943346249277303</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.004625103205954132</v>
+        <v>0.004055695802729567</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.002215047341276763</v>
+        <v>0.002013881389182185</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1445,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03799624427326944</v>
+        <v>0.03802435668851218</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01058801168635139</v>
+        <v>0.01059722943972014</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01187706645727043</v>
+        <v>0.01047058995139415</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.0419554838130927</v>
+        <v>0.04248420800890652</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02079710486266172</v>
+        <v>0.02160819404141061</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01655022554299786</v>
+        <v>0.01646433431549951</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0352880304264457</v>
+        <v>0.03546385709144683</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01367315918874298</v>
+        <v>0.01425934429254076</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.009855517231782287</v>
+        <v>0.009461683300695349</v>
       </c>
     </row>
     <row r="28">
@@ -1519,31 +1519,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.00790127440197994</v>
+        <v>0.007778858586261092</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.004171528639609179</v>
+        <v>0.003963433618179132</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.003313949028394946</v>
+        <v>0.003090804098487121</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01135581951712544</v>
+        <v>0.01105620803452549</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01256436411250381</v>
+        <v>0.01255686203642089</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.01050554548161705</v>
+        <v>0.01085280345606824</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01019667225461175</v>
+        <v>0.0102892885069448</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.008862921858948937</v>
+        <v>0.009107068813574579</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.007751999497048452</v>
+        <v>0.007668092941202856</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1554,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01499601045264456</v>
+        <v>0.01487375644877311</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01045004622711928</v>
+        <v>0.01021529970257599</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.008152979362129073</v>
+        <v>0.008108381856723079</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.01962394752414813</v>
+        <v>0.02004025318614542</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.02110338031769656</v>
+        <v>0.02211740285126669</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.01927348825151559</v>
+        <v>0.01958768386774908</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.01569824790564721</v>
+        <v>0.01607736825623101</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.01447867572649579</v>
+        <v>0.01448518908091208</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.0127750601052864</v>
+        <v>0.01244811168646032</v>
       </c>
     </row>
     <row r="31">
@@ -1815,25 +1815,25 @@
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1809</v>
+        <v>1072</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2028</v>
+        <v>1944</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3085</v>
+        <v>2921</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3586</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="7">
@@ -1844,26 +1844,26 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9197</v>
+        <v>8427</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>8362</v>
+        <v>8193</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10607</v>
+        <v>9952</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7784</v>
+        <v>7912</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>12045</v>
+        <v>11969</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16420</v>
+        <v>14942</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>8365</v>
+        <v>8964</v>
       </c>
       <c r="K7" s="6" t="n">
         <v>15749</v>
@@ -1957,25 +1957,25 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3818</v>
+        <v>3725</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6698</v>
+        <v>6648</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5059</v>
+        <v>5016</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8028</v>
+        <v>7406</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3126</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="11">
@@ -1986,31 +1986,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7112</v>
+        <v>7156</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5562</v>
+        <v>5252</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7846</v>
+        <v>7676</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16168</v>
+        <v>15193</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>22722</v>
+        <v>22973</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11729</v>
+        <v>12143</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>18813</v>
+        <v>17919</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>25135</v>
+        <v>23399</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>15121</v>
+        <v>15202</v>
       </c>
     </row>
     <row r="12">
@@ -2095,19 +2095,19 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>990</v>
+        <v>944</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>2062</v>
+        <v>2053</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>4079</v>
+        <v>4129</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
@@ -2122,22 +2122,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9566</v>
+        <v>8772</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>11782</v>
+        <v>12260</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8783</v>
+        <v>6521</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>17072</v>
+        <v>16718</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6401</v>
+        <v>7318</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
     </row>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
@@ -2235,19 +2235,19 @@
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2055</v>
+        <v>2026</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8684</v>
+        <v>8314</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1695</v>
+        <v>1802</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4000</v>
+        <v>3334</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8926</v>
+        <v>9505</v>
       </c>
     </row>
     <row r="19">
@@ -2258,31 +2258,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7755</v>
+        <v>7163</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7361</v>
+        <v>7792</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5751</v>
+        <v>5691</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>6549</v>
+        <v>8075</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12621</v>
+        <v>12905</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25411</v>
+        <v>24492</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>10327</v>
+        <v>10661</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>16548</v>
+        <v>15529</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>28024</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="20">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>1037</v>
+        <v>1058</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
@@ -2377,14 +2377,14 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5107</v>
+        <v>5146</v>
       </c>
       <c r="H22" s="6" t="inlineStr"/>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7403</v>
+        <v>8701</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
@@ -2399,26 +2399,26 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>13200</v>
+        <v>14912</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4744</v>
+        <v>4781</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>7331</v>
+        <v>7614</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18831</v>
+        <v>19202</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="n">
-        <v>6798</v>
+        <v>6476</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>24663</v>
+        <v>27075</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5220</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="24">
@@ -2509,25 +2509,25 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2038</v>
+        <v>2086</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2088</v>
+        <v>2139</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>3189</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="27">
@@ -2538,31 +2538,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5422</v>
+        <v>4936</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5356</v>
+        <v>6164</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9480</v>
+        <v>9143</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7670</v>
+        <v>8191</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>11605</v>
+        <v>10716</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8890</v>
+        <v>9719</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9276</v>
+        <v>8822</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>12668</v>
+        <v>12669</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>14612</v>
+        <v>14842</v>
       </c>
     </row>
     <row r="28">
@@ -2647,31 +2647,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1798</v>
+        <v>1861</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>5095</v>
+        <v>5052</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>973</v>
+        <v>901</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3097</v>
+        <v>3189</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>9154</v>
+        <v>9435</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>4405</v>
+        <v>4449</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>11187</v>
+        <v>11254</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>11547</v>
+        <v>12288</v>
       </c>
     </row>
     <row r="31">
@@ -2682,31 +2682,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>11925</v>
+        <v>13053</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>19803</v>
+        <v>19364</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>9132</v>
+        <v>8972</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>9571</v>
+        <v>9681</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>16657</v>
+        <v>16660</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>27704</v>
+        <v>26549</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>17653</v>
+        <v>17695</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>30872</v>
+        <v>30881</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>31164</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="32">
@@ -2791,31 +2791,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>11683</v>
+        <v>11173</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>12925</v>
+        <v>13427</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>4446</v>
+        <v>4424</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2298</v>
+        <v>2046</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>29478</v>
+        <v>29681</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>7408</v>
+        <v>6496</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>3555</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="35">
@@ -2826,31 +2826,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>28261</v>
+        <v>28282</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>8249</v>
+        <v>8256</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>9247</v>
+        <v>8152</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>32873</v>
+        <v>33287</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>17107</v>
+        <v>17774</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>13673</v>
+        <v>13602</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>53896</v>
+        <v>54164</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>21900</v>
+        <v>22839</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>15816</v>
+        <v>15184</v>
       </c>
     </row>
     <row r="36">
@@ -2935,31 +2935,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>25889</v>
+        <v>25488</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>14295</v>
+        <v>13582</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>11249</v>
+        <v>10491</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>38374</v>
+        <v>37361</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>44654</v>
+        <v>44627</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>37237</v>
+        <v>38468</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>67866</v>
+        <v>68483</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>61870</v>
+        <v>63574</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>53790</v>
+        <v>53208</v>
       </c>
     </row>
     <row r="39">
@@ -2970,31 +2970,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>49135</v>
+        <v>48735</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>35810</v>
+        <v>35006</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>27674</v>
+        <v>27523</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>66313</v>
+        <v>67720</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>75001</v>
+        <v>78605</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>68316</v>
+        <v>69429</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>104483</v>
+        <v>107007</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>101072</v>
+        <v>101118</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>88645</v>
+        <v>86376</v>
       </c>
     </row>
     <row r="40">
